--- a/medicine/Psychotrope/Référendum_de_2020_sur_la_légalisation_du_cannabis_en_Arizona/Référendum_de_2020_sur_la_légalisation_du_cannabis_en_Arizona.xlsx
+++ b/medicine/Psychotrope/Référendum_de_2020_sur_la_légalisation_du_cannabis_en_Arizona/Référendum_de_2020_sur_la_légalisation_du_cannabis_en_Arizona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9f%C3%A9rendum_de_2020_sur_la_l%C3%A9galisation_du_cannabis_en_Arizona</t>
+          <t>Référendum_de_2020_sur_la_légalisation_du_cannabis_en_Arizona</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Un référendum sur la légalisation du cannabis a lieu le 3 novembre 2020 en Arizona. La population est amenée à se prononcer sur une proposition de loi d'initiative populaire, dite Proposition 207, visant à légaliser la possession et l'utilisation du cannabis à fins récréatives pour toutes les personnes âgées d'au moins 21 ans, a taxer les ventes de cannabis, et à exiger du Département de la santé de l’État qu'il mette en place une réglementation encadrant la vente du cannabis[1].
-La proposition est approuvée à une large majorité[2]. Les ventes débutent le 22 janvier 2021[3].
+Un référendum sur la légalisation du cannabis a lieu le 3 novembre 2020 en Arizona. La population est amenée à se prononcer sur une proposition de loi d'initiative populaire, dite Proposition 207, visant à légaliser la possession et l'utilisation du cannabis à fins récréatives pour toutes les personnes âgées d'au moins 21 ans, a taxer les ventes de cannabis, et à exiger du Département de la santé de l’État qu'il mette en place une réglementation encadrant la vente du cannabis.
+La proposition est approuvée à une large majorité. Les ventes débutent le 22 janvier 2021.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9f%C3%A9rendum_de_2020_sur_la_l%C3%A9galisation_du_cannabis_en_Arizona</t>
+          <t>Référendum_de_2020_sur_la_légalisation_du_cannabis_en_Arizona</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résultats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
